--- a/output/XP_30068713000158.xlsx
+++ b/output/XP_30068713000158.xlsx
@@ -746,10 +746,10 @@
         <v>44165</v>
       </c>
       <c r="B33">
-        <v>0.17927976</v>
+        <v>0.1839255099999999</v>
       </c>
       <c r="C33">
-        <v>0.05114904337021087</v>
+        <v>0.05529002486915302</v>
       </c>
     </row>
   </sheetData>

--- a/output/XP_30068713000158.xlsx
+++ b/output/XP_30068713000158.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>XP MACRO PLUS FUNDO DE INVESTIMENTO EM COTAS DE FUNDO DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,24 +383,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>43220</v>
       </c>
@@ -411,345 +405,252 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>43251</v>
       </c>
       <c r="B3">
         <v>-0.02587983999999999</v>
       </c>
-      <c r="C3">
-        <v>-0.02587983999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>43281</v>
       </c>
       <c r="B4">
-        <v>0.004354069999999988</v>
-      </c>
-      <c r="C4">
         <v>0.03103714638243393</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>43312</v>
       </c>
       <c r="B5">
-        <v>-0.0001125800000000288</v>
-      </c>
-      <c r="C5">
         <v>-0.004447286204555367</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>43343</v>
       </c>
       <c r="B6">
-        <v>0.01508127999999997</v>
-      </c>
-      <c r="C6">
         <v>0.01519557071735145</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>43373</v>
       </c>
       <c r="B7">
-        <v>0.01667796999999993</v>
-      </c>
-      <c r="C7">
         <v>0.001572967634670519</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>43404</v>
       </c>
       <c r="B8">
-        <v>0.03249232999999996</v>
-      </c>
-      <c r="C8">
         <v>0.01555493525644125</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>43434</v>
       </c>
       <c r="B9">
-        <v>0.005519700000000016</v>
-      </c>
-      <c r="C9">
         <v>-0.02612380665336267</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>43465</v>
       </c>
       <c r="B10">
-        <v>0.0054944400000001</v>
-      </c>
-      <c r="C10">
         <v>-2.512133775189884e-05</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>43496</v>
       </c>
       <c r="B11">
-        <v>0.06861180999999994</v>
-      </c>
-      <c r="C11">
         <v>0.0627724704275836</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>43524</v>
       </c>
       <c r="B12">
-        <v>0.05610661000000006</v>
-      </c>
-      <c r="C12">
         <v>-0.01170228504212389</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>43555</v>
       </c>
       <c r="B13">
-        <v>0.05480551999999994</v>
-      </c>
-      <c r="C13">
         <v>-0.001231968427884533</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>43585</v>
       </c>
       <c r="B14">
-        <v>0.06398284999999992</v>
-      </c>
-      <c r="C14">
         <v>0.008700494855203189</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>43616</v>
       </c>
       <c r="B15">
-        <v>0.04105865000000009</v>
-      </c>
-      <c r="C15">
         <v>-0.0215456480337064</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>43646</v>
       </c>
       <c r="B16">
-        <v>0.07505859999999998</v>
-      </c>
-      <c r="C16">
         <v>0.03265901493638212</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>43677</v>
       </c>
       <c r="B17">
-        <v>0.09021071999999997</v>
-      </c>
-      <c r="C17">
         <v>0.01409422704957675</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>43708</v>
       </c>
       <c r="B18">
-        <v>0.09090489999999996</v>
-      </c>
-      <c r="C18">
         <v>0.000636739290180488</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>43738</v>
       </c>
       <c r="B19">
-        <v>0.11828075</v>
-      </c>
-      <c r="C19">
         <v>0.02509462557185338</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>43769</v>
       </c>
       <c r="B20">
-        <v>0.1580573000000001</v>
-      </c>
-      <c r="C20">
         <v>0.03556937736789267</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>43799</v>
       </c>
       <c r="B21">
-        <v>0.12416805</v>
-      </c>
-      <c r="C21">
         <v>-0.02926388012061243</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>43830</v>
       </c>
       <c r="B22">
-        <v>0.1629569200000001</v>
-      </c>
-      <c r="C22">
         <v>0.03450451202558202</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>43861</v>
       </c>
       <c r="B23">
-        <v>0.15771896</v>
-      </c>
-      <c r="C23">
         <v>-0.004504001747545505</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>43890</v>
       </c>
       <c r="B24">
-        <v>0.1158104200000001</v>
-      </c>
-      <c r="C24">
         <v>-0.0361992343979578</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>43921</v>
       </c>
       <c r="B25">
-        <v>-0.09157704</v>
-      </c>
-      <c r="C25">
         <v>-0.1858626306787851</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>43951</v>
       </c>
       <c r="B26">
-        <v>-0.06640942999999999</v>
-      </c>
-      <c r="C26">
         <v>0.027704726881848</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>43982</v>
       </c>
       <c r="B27">
-        <v>0.03179014999999996</v>
-      </c>
-      <c r="C27">
         <v>0.1051848456438458</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>44012</v>
       </c>
       <c r="B28">
-        <v>0.09010742000000005</v>
-      </c>
-      <c r="C28">
         <v>0.0565204756025246</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>44043</v>
       </c>
       <c r="B29">
-        <v>0.1631912900000001</v>
-      </c>
-      <c r="C29">
         <v>0.06704281491818498</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>44074</v>
       </c>
       <c r="B30">
-        <v>0.1623280300000001</v>
-      </c>
-      <c r="C30">
         <v>-0.0007421479230643735</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>44104</v>
       </c>
       <c r="B31">
-        <v>0.1260984000000001</v>
-      </c>
-      <c r="C31">
         <v>-0.03116988411610444</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>44135</v>
       </c>
       <c r="B32">
-        <v>0.12189586</v>
-      </c>
-      <c r="C32">
         <v>-0.003731947403530667</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>44165</v>
       </c>
       <c r="B33">
-        <v>0.1839255099999999</v>
-      </c>
-      <c r="C33">
-        <v>0.05529002486915302</v>
+        <v>0.02867603950334585</v>
       </c>
     </row>
   </sheetData>
